--- a/WIP/Users/LucPT/FAP_TestViewpoint_Report_v1.0_EN.xlsx
+++ b/WIP/Users/LucPT/FAP_TestViewpoint_Report_v1.0_EN.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin-pc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\2015SUMJS01\WIP\Users\LucPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -675,11 +675,6 @@
     <t>Requirement</t>
   </si>
   <si>
-    <t>Check display:
-- Window 7
--Browser: Firefox, Chrome, IE</t>
-  </si>
-  <si>
     <t>1.1.1.2</t>
   </si>
   <si>
@@ -988,9 +983,6 @@
     <t>Chỉ tiêu thể hiện là đang phù hợp ở mức độ như thế nào trong quy cách・quy tắc・tiêu chuẩn (của protocol v.v…)liên quan đến tính linh động</t>
   </si>
   <si>
-    <t>Edit profile screen</t>
-  </si>
-  <si>
     <t>Report profile Screen</t>
   </si>
   <si>
@@ -1075,6 +1067,13 @@
   </si>
   <si>
     <t>1.2.2.4</t>
+  </si>
+  <si>
+    <t>Check display:
+-Browser: Firefox, Chrome</t>
+  </si>
+  <si>
+    <t>Report screen</t>
   </si>
 </sst>
 </file>
@@ -3074,6 +3073,24 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3094,24 +3111,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="30" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3513,22 +3512,22 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>117360</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>248446</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38464</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3539,29 +3538,18 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="2333625" y="400050"/>
-          <a:ext cx="3955935" cy="3971925"/>
+          <a:off x="1400175" y="876300"/>
+          <a:ext cx="5706271" cy="2610214"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -6252,9 +6240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -6272,14 +6258,14 @@
     <row r="2" spans="1:8" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="104"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="110"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="B3" s="6"/>
@@ -6294,57 +6280,57 @@
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="105" t="s">
-        <v>138</v>
-      </c>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
+      <c r="C4" s="111" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
       <c r="G4" s="12" t="s">
         <v>2</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="105" t="s">
-        <v>139</v>
-      </c>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
+      <c r="C5" s="111" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
       <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="107" t="s">
-        <v>140</v>
-      </c>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
+      <c r="C6" s="113" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
       <c r="G6" s="12" t="s">
         <v>6</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1">
-      <c r="B7" s="106"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
       <c r="G7" s="12" t="s">
         <v>7</v>
       </c>
@@ -6367,10 +6353,10 @@
       <c r="B9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="101" t="s">
+      <c r="C9" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="102"/>
+      <c r="D9" s="108"/>
       <c r="E9" s="19" t="s">
         <v>11</v>
       </c>
@@ -6386,12 +6372,12 @@
     </row>
     <row r="10" spans="1:8" s="21" customFormat="1" ht="25.5">
       <c r="B10" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="C10" s="110" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="111"/>
+      <c r="D10" s="104"/>
       <c r="E10" s="23" t="s">
         <v>15</v>
       </c>
@@ -6400,13 +6386,13 @@
         <v>16</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" ht="13.5" customHeight="1">
       <c r="B11" s="27"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="111"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="104"/>
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
@@ -6414,8 +6400,8 @@
     </row>
     <row r="12" spans="1:8" s="21" customFormat="1">
       <c r="B12" s="29"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="113"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="106"/>
       <c r="E12" s="30"/>
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
@@ -6423,8 +6409,8 @@
     </row>
     <row r="13" spans="1:8" s="21" customFormat="1">
       <c r="B13" s="29"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="111"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="104"/>
       <c r="E13" s="30"/>
       <c r="F13" s="24"/>
       <c r="G13" s="31"/>
@@ -6432,8 +6418,8 @@
     </row>
     <row r="14" spans="1:8" s="21" customFormat="1">
       <c r="B14" s="29"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="111"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="104"/>
       <c r="E14" s="30"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -6441,8 +6427,8 @@
     </row>
     <row r="15" spans="1:8" s="21" customFormat="1">
       <c r="B15" s="29"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="111"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="104"/>
       <c r="E15" s="30"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -6450,8 +6436,8 @@
     </row>
     <row r="16" spans="1:8" ht="13.5" thickBot="1">
       <c r="B16" s="32"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="109"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="102"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
       <c r="G16" s="35"/>
@@ -6459,6 +6445,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F7"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
@@ -6466,12 +6458,6 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:F7"/>
   </mergeCells>
   <pageMargins left="0.47013888888888888" right="0.47013888888888888" top="0.5" bottom="0.35138888888888886" header="0.51180555555555562" footer="0.1701388888888889"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6487,8 +6473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M113"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="D15" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="D13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6609,7 +6595,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E6" s="43"/>
       <c r="F6" s="43"/>
@@ -6678,23 +6664,23 @@
         <v>37</v>
       </c>
       <c r="K9" s="56" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
       <c r="L9" s="59" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="44" customFormat="1" ht="103.5" customHeight="1">
       <c r="A10" s="47"/>
       <c r="B10" s="48"/>
       <c r="C10" s="49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="49"/>
       <c r="E10" s="56"/>
       <c r="F10" s="56"/>
       <c r="G10" s="56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H10" s="49" t="s">
         <v>35</v>
@@ -6706,21 +6692,21 @@
         <v>37</v>
       </c>
       <c r="K10" s="56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L10" s="59" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="44" customFormat="1">
       <c r="A11" s="45"/>
       <c r="B11" s="45"/>
       <c r="C11" s="45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="45"/>
       <c r="E11" s="46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" s="46"/>
       <c r="G11" s="46"/>
@@ -6734,12 +6720,12 @@
       <c r="A12" s="47"/>
       <c r="B12" s="48"/>
       <c r="C12" s="49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" s="60"/>
       <c r="E12" s="61"/>
       <c r="F12" s="51" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G12" s="52"/>
       <c r="H12" s="52"/>
@@ -6752,13 +6738,13 @@
       <c r="A13" s="47"/>
       <c r="B13" s="48"/>
       <c r="C13" s="49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" s="49"/>
       <c r="E13" s="56"/>
       <c r="F13" s="62"/>
       <c r="G13" s="62" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H13" s="49" t="s">
         <v>35</v>
@@ -6770,23 +6756,23 @@
         <v>37</v>
       </c>
       <c r="K13" s="56" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L13" s="62" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="44" customFormat="1" ht="43.5" customHeight="1">
       <c r="A14" s="47"/>
       <c r="B14" s="48"/>
       <c r="C14" s="49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="49"/>
       <c r="E14" s="56"/>
       <c r="F14" s="62"/>
       <c r="G14" s="62" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H14" s="49" t="s">
         <v>35</v>
@@ -6798,23 +6784,23 @@
         <v>37</v>
       </c>
       <c r="K14" s="56" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L14" s="62" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="44" customFormat="1" ht="42" customHeight="1">
       <c r="A15" s="47"/>
       <c r="B15" s="48"/>
       <c r="C15" s="49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="60"/>
       <c r="E15" s="64"/>
       <c r="F15" s="63"/>
       <c r="G15" s="63" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H15" s="49" t="s">
         <v>35</v>
@@ -6826,22 +6812,22 @@
         <v>37</v>
       </c>
       <c r="K15" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="L15" s="62" t="s">
         <v>149</v>
-      </c>
-      <c r="L15" s="62" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="44" customFormat="1" ht="24" customHeight="1">
       <c r="A16" s="47"/>
       <c r="B16" s="48"/>
       <c r="C16" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="60"/>
       <c r="E16" s="61"/>
       <c r="F16" s="51" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G16" s="52"/>
       <c r="H16" s="52"/>
@@ -6854,13 +6840,13 @@
       <c r="A17" s="47"/>
       <c r="B17" s="48"/>
       <c r="C17" s="48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="49"/>
       <c r="E17" s="63"/>
       <c r="F17" s="56"/>
       <c r="G17" s="56" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H17" s="49" t="s">
         <v>35</v>
@@ -6872,23 +6858,23 @@
         <v>37</v>
       </c>
       <c r="K17" s="59" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L17" s="56" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="44" customFormat="1" ht="31.5" customHeight="1">
       <c r="A18" s="47"/>
       <c r="B18" s="48"/>
       <c r="C18" s="48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="49"/>
       <c r="E18" s="63"/>
       <c r="F18" s="56"/>
       <c r="G18" s="56" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H18" s="49" t="s">
         <v>35</v>
@@ -6900,23 +6886,23 @@
         <v>37</v>
       </c>
       <c r="K18" s="59" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L18" s="56" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="44" customFormat="1" ht="43.5" customHeight="1">
       <c r="A19" s="47"/>
       <c r="B19" s="48"/>
       <c r="C19" s="49" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D19" s="49"/>
       <c r="E19" s="56"/>
       <c r="F19" s="62"/>
       <c r="G19" s="62" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H19" s="49" t="s">
         <v>35</v>
@@ -6928,23 +6914,23 @@
         <v>37</v>
       </c>
       <c r="K19" s="56" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L19" s="62" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="44" customFormat="1" ht="42" customHeight="1">
       <c r="A20" s="47"/>
       <c r="B20" s="48"/>
       <c r="C20" s="49" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D20" s="60"/>
       <c r="E20" s="64"/>
       <c r="F20" s="63"/>
       <c r="G20" s="63" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H20" s="49" t="s">
         <v>35</v>
@@ -6956,10 +6942,10 @@
         <v>37</v>
       </c>
       <c r="K20" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="L20" s="62" t="s">
         <v>149</v>
-      </c>
-      <c r="L20" s="62" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="44" customFormat="1">
@@ -8047,14 +8033,14 @@
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="1:1" ht="15">
       <c r="A2" s="80" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -8083,25 +8069,25 @@
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="81" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="82" t="s">
         <v>36</v>
       </c>
       <c r="E2" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="82" t="s">
+      <c r="G2" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="82" t="s">
+      <c r="H2" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="82" t="s">
+      <c r="I2" s="82" t="s">
         <v>55</v>
-      </c>
-      <c r="I2" s="82" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -8113,70 +8099,70 @@
         <v>37</v>
       </c>
       <c r="E3" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="86" t="s">
+      <c r="G3" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="86" t="s">
+      <c r="H3" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="86" t="s">
+      <c r="I3" s="85" t="s">
         <v>60</v>
-      </c>
-      <c r="I3" s="85" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="83" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="84"/>
       <c r="D4" s="85" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="86" t="s">
+      <c r="F4" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="86" t="s">
+      <c r="G4" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="86" t="s">
+      <c r="H4" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="86" t="s">
+      <c r="I4" s="86" t="s">
         <v>66</v>
-      </c>
-      <c r="I4" s="86" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="83" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="84"/>
       <c r="D5" s="85" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E5" s="84"/>
       <c r="F5" s="86" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G5" s="84"/>
       <c r="H5" s="86" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I5" s="84"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="83" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="84"/>
       <c r="D6" s="85" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E6" s="84"/>
       <c r="F6" s="84"/>
@@ -8186,7 +8172,7 @@
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="83" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="84"/>
       <c r="D7" s="84"/>
@@ -8198,7 +8184,7 @@
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="83" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="84"/>
       <c r="D8" s="84"/>
@@ -8345,7 +8331,7 @@
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" s="87" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -8353,13 +8339,13 @@
         <v>25</v>
       </c>
       <c r="C4" s="88" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="88" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="88" t="s">
         <v>72</v>
-      </c>
-      <c r="E4" s="88" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -8368,7 +8354,7 @@
       </c>
       <c r="C5" s="120"/>
       <c r="D5" s="89" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E5" s="89"/>
     </row>
@@ -8378,358 +8364,358 @@
         <v>37</v>
       </c>
       <c r="D6" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="91" t="s">
         <v>75</v>
-      </c>
-      <c r="E6" s="91" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="24" customHeight="1">
       <c r="B7" s="117"/>
       <c r="C7" s="90" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="91" t="s">
+      <c r="E7" s="92" t="s">
         <v>78</v>
-      </c>
-      <c r="E7" s="92" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="21.75" customHeight="1">
       <c r="B8" s="117"/>
       <c r="C8" s="90" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="92" t="s">
+      <c r="E8" s="92" t="s">
         <v>81</v>
-      </c>
-      <c r="E8" s="92" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="117"/>
       <c r="C9" s="93" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="94" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="94" t="s">
+      <c r="E9" s="94" t="s">
         <v>84</v>
-      </c>
-      <c r="E9" s="94" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="23.25" customHeight="1">
       <c r="B10" s="118"/>
       <c r="C10" s="90" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="92" t="s">
         <v>86</v>
-      </c>
-      <c r="E10" s="92" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="14.25" customHeight="1">
       <c r="B11" s="119" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" s="120"/>
       <c r="D11" s="89" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E11" s="89"/>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="116"/>
       <c r="C12" s="95" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="96" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="96" t="s">
-        <v>90</v>
-      </c>
       <c r="E12" s="96" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="117"/>
       <c r="C13" s="90" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="D13" s="91" t="s">
+      <c r="E13" s="91" t="s">
         <v>92</v>
-      </c>
-      <c r="E13" s="91" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="38.25">
       <c r="B14" s="117"/>
       <c r="C14" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="91" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="91" t="s">
+      <c r="E14" s="92" t="s">
         <v>95</v>
-      </c>
-      <c r="E14" s="92" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="118"/>
       <c r="C15" s="95" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D15" s="96" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E15" s="96"/>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="119" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="120"/>
       <c r="D16" s="89" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E16" s="89"/>
     </row>
     <row r="17" spans="2:5" ht="25.5">
       <c r="B17" s="116"/>
       <c r="C17" s="90" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D17" s="92" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="91" t="s">
         <v>99</v>
-      </c>
-      <c r="E17" s="91" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="25.5">
       <c r="B18" s="117"/>
       <c r="C18" s="95" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="97" t="s">
         <v>101</v>
-      </c>
-      <c r="D18" s="97" t="s">
-        <v>102</v>
       </c>
       <c r="E18" s="96"/>
     </row>
     <row r="19" spans="2:5" ht="38.25">
       <c r="B19" s="117"/>
       <c r="C19" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="92" t="s">
         <v>103</v>
       </c>
-      <c r="D19" s="92" t="s">
+      <c r="E19" s="92" t="s">
         <v>104</v>
-      </c>
-      <c r="E19" s="92" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="117"/>
       <c r="C20" s="95" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="96" t="s">
         <v>106</v>
-      </c>
-      <c r="D20" s="96" t="s">
-        <v>107</v>
       </c>
       <c r="E20" s="96"/>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="118"/>
       <c r="C21" s="90" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" s="91" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E21" s="91"/>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="119" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="120"/>
       <c r="D22" s="89" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E22" s="89"/>
     </row>
     <row r="23" spans="2:5" ht="51">
       <c r="B23" s="116"/>
       <c r="C23" s="90" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D23" s="92" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="91" t="s">
         <v>110</v>
-      </c>
-      <c r="E23" s="91" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="25.5">
       <c r="B24" s="117"/>
       <c r="C24" s="90" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D24" s="91" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="92" t="s">
         <v>112</v>
-      </c>
-      <c r="E24" s="92" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="118"/>
       <c r="C25" s="95" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D25" s="96" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E25" s="96"/>
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="119" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C26" s="120"/>
       <c r="D26" s="89" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E26" s="89"/>
     </row>
     <row r="27" spans="2:5" ht="127.5">
       <c r="B27" s="116"/>
       <c r="C27" s="90" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D27" s="91" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" s="92" t="s">
         <v>115</v>
-      </c>
-      <c r="E27" s="92" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="28" spans="2:5">
       <c r="B28" s="117"/>
       <c r="C28" s="95" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="96" t="s">
         <v>117</v>
       </c>
-      <c r="D28" s="96" t="s">
-        <v>118</v>
-      </c>
       <c r="E28" s="96" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="2:5">
       <c r="B29" s="117"/>
       <c r="C29" s="90" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D29" s="91" t="s">
+        <v>118</v>
+      </c>
+      <c r="E29" s="91" t="s">
         <v>119</v>
-      </c>
-      <c r="E29" s="91" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="30" spans="2:5">
       <c r="B30" s="117"/>
       <c r="C30" s="90" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D30" s="91" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30" s="91" t="s">
         <v>121</v>
-      </c>
-      <c r="E30" s="91" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="31" spans="2:5">
       <c r="B31" s="118"/>
       <c r="C31" s="95" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D31" s="96" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E31" s="96"/>
     </row>
     <row r="32" spans="2:5">
       <c r="B32" s="119" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" s="120"/>
       <c r="D32" s="89" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E32" s="89"/>
     </row>
     <row r="33" spans="2:5" ht="38.25">
       <c r="B33" s="116"/>
       <c r="C33" s="98" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D33" s="99" t="s">
+        <v>123</v>
+      </c>
+      <c r="E33" s="100" t="s">
         <v>124</v>
-      </c>
-      <c r="E33" s="100" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="117"/>
       <c r="C34" s="93" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34" s="94" t="s">
         <v>126</v>
       </c>
-      <c r="D34" s="94" t="s">
+      <c r="E34" s="94" t="s">
         <v>127</v>
-      </c>
-      <c r="E34" s="94" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="117"/>
       <c r="C35" s="95" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D35" s="96" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E35" s="96"/>
     </row>
     <row r="36" spans="2:5" ht="25.5">
       <c r="B36" s="117"/>
       <c r="C36" s="90" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D36" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="E36" s="92" t="s">
         <v>130</v>
-      </c>
-      <c r="E36" s="92" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="37" spans="2:5">
       <c r="B37" s="118"/>
       <c r="C37" s="95" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D37" s="96" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E37" s="96" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
